--- a/doc/GoServerAPI.xlsx
+++ b/doc/GoServerAPI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>Model</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>USER</t>
+  </si>
+  <si>
+    <t>TODO 1.获取该用户排名</t>
   </si>
   <si>
     <t>Login</t>
@@ -256,6 +259,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -267,9 +273,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -337,222 +340,224 @@
       <c r="A3" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="7"/>
+      <c r="B3" t="s" s="7">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8"/>
       <c r="D3" s="5"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
       <c r="A4" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="B4" t="s" s="8">
         <v>6</v>
+      </c>
+      <c r="C4" t="s" s="8">
+        <v>7</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
       <c r="A5" t="s" s="6">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="B5" t="s" s="8">
         <v>9</v>
+      </c>
+      <c r="C5" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
       <c r="A6" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="B6" t="s" s="8">
         <v>12</v>
       </c>
+      <c r="C6" t="s" s="8">
+        <v>13</v>
+      </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s" s="7">
+      <c r="A7" t="s" s="9">
         <v>14</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="B7" t="s" s="8">
         <v>15</v>
+      </c>
+      <c r="C7" t="s" s="8">
+        <v>16</v>
       </c>
       <c r="D7" s="5"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
       <c r="A8" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C8" t="s" s="7">
+      <c r="B8" t="s" s="8">
         <v>18</v>
+      </c>
+      <c r="C8" t="s" s="8">
+        <v>19</v>
       </c>
       <c r="D8" s="5"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
       <c r="A9" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="C9" t="s" s="9">
+      <c r="B9" t="s" s="8">
         <v>21</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="C9" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
       <c r="A10" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="C10" t="s" s="9">
+      <c r="B10" t="s" s="8">
         <v>24</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="C10" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
       <c r="A11" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="C11" t="s" s="9">
+      <c r="B11" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="C11" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" ht="20.35" customHeight="1">
       <c r="A12" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="C12" t="s" s="9">
+      <c r="B12" t="s" s="8">
         <v>30</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="C12" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" ht="20.35" customHeight="1">
       <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="5"/>
     </row>
     <row r="14" ht="20.35" customHeight="1">
       <c r="A14" t="s" s="6">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s" s="11">
         <v>32</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="B14" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C14" s="8"/>
       <c r="D14" s="5"/>
     </row>
     <row r="15" ht="20.35" customHeight="1">
       <c r="A15" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s" s="8">
         <v>34</v>
       </c>
+      <c r="C15" t="s" s="8">
+        <v>35</v>
+      </c>
       <c r="D15" s="5"/>
     </row>
     <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s" s="7">
+      <c r="A16" t="s" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s" s="8">
         <v>36</v>
+      </c>
+      <c r="C16" t="s" s="8">
+        <v>37</v>
       </c>
       <c r="D16" s="5"/>
     </row>
     <row r="17" ht="20.35" customHeight="1">
       <c r="A17" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s" s="7">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s" s="8">
         <v>38</v>
+      </c>
+      <c r="C17" t="s" s="8">
+        <v>39</v>
       </c>
       <c r="D17" s="5"/>
     </row>
     <row r="18" ht="20.35" customHeight="1">
       <c r="A18" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s" s="8">
         <v>40</v>
+      </c>
+      <c r="C18" t="s" s="8">
+        <v>41</v>
       </c>
       <c r="D18" s="5"/>
     </row>
     <row r="19" ht="20.35" customHeight="1">
       <c r="A19" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s" s="8">
         <v>42</v>
+      </c>
+      <c r="C19" t="s" s="8">
+        <v>43</v>
       </c>
       <c r="D19" s="5"/>
     </row>
     <row r="20" ht="20.35" customHeight="1">
       <c r="A20" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s" s="9">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s" s="8">
         <v>44</v>
+      </c>
+      <c r="C20" t="s" s="10">
+        <v>45</v>
       </c>
       <c r="D20" s="5"/>
     </row>
     <row r="21" ht="20.35" customHeight="1">
       <c r="A21" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s" s="8">
         <v>46</v>
+      </c>
+      <c r="C21" t="s" s="8">
+        <v>47</v>
       </c>
       <c r="D21" s="5"/>
     </row>
     <row r="22" ht="20.35" customHeight="1">
       <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="5"/>
     </row>
   </sheetData>

--- a/doc/GoServerAPI.xlsx
+++ b/doc/GoServerAPI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>Model</t>
   </si>
@@ -156,6 +156,39 @@
   </si>
   <si>
     <t>启用屏蔽题目 pid必须</t>
+  </si>
+  <si>
+    <t>POST /news/list/offset/&lt;offset&gt;/limit/&lt;limit&gt;</t>
+  </si>
+  <si>
+    <t>获取新闻列表 参数可选 搜索不可用</t>
+  </si>
+  <si>
+    <t>POST /news/insert</t>
+  </si>
+  <si>
+    <t>插入新闻</t>
+  </si>
+  <si>
+    <t>POST /news/delete/nid/&lt;nid&gt;</t>
+  </si>
+  <si>
+    <t>新闻详情 nid必须</t>
+  </si>
+  <si>
+    <t>POST /news/update/nid/&lt;nid&gt;</t>
+  </si>
+  <si>
+    <t>修改新闻 nid必须</t>
+  </si>
+  <si>
+    <t>删除新闻 nid必须</t>
+  </si>
+  <si>
+    <t>POST /news/status/nid/&lt;nid&gt;</t>
+  </si>
+  <si>
+    <t>启用屏蔽新闻 nid必须</t>
   </si>
 </sst>
 </file>
@@ -303,7 +336,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozenSplit"/>
@@ -560,6 +593,86 @@
       <c r="C22" s="8"/>
       <c r="D22" s="5"/>
     </row>
+    <row r="23" ht="20.35" customHeight="1">
+      <c r="A23" t="s" s="6">
+        <v>3</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" ht="20.35" customHeight="1">
+      <c r="A24" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s" s="8">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s" s="10">
+        <v>49</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" ht="20.35" customHeight="1">
+      <c r="A25" t="s" s="9">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s" s="8">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s" s="8">
+        <v>51</v>
+      </c>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" ht="20.35" customHeight="1">
+      <c r="A26" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s" s="8">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s" s="8">
+        <v>53</v>
+      </c>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" ht="20.35" customHeight="1">
+      <c r="A27" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s" s="8">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s" s="8">
+        <v>55</v>
+      </c>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" ht="20.35" customHeight="1">
+      <c r="A28" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s" s="8">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s" s="8">
+        <v>56</v>
+      </c>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" ht="20.35" customHeight="1">
+      <c r="A29" t="s" s="6">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s" s="8">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s" s="8">
+        <v>58</v>
+      </c>
+      <c r="D29" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/doc/GoServerAPI.xlsx
+++ b/doc/GoServerAPI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>Model</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>启用屏蔽题目 pid必须</t>
+  </si>
+  <si>
+    <t>NEWS</t>
   </si>
   <si>
     <t>POST /news/list/offset/&lt;offset&gt;/limit/&lt;limit&gt;</t>
@@ -595,7 +598,7 @@
     </row>
     <row r="23" ht="20.35" customHeight="1">
       <c r="A23" t="s" s="6">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -606,10 +609,10 @@
         <v>11</v>
       </c>
       <c r="B24" t="s" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D24" s="5"/>
     </row>
@@ -618,10 +621,10 @@
         <v>14</v>
       </c>
       <c r="B25" t="s" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D25" s="5"/>
     </row>
@@ -630,10 +633,10 @@
         <v>17</v>
       </c>
       <c r="B26" t="s" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D26" s="5"/>
     </row>
@@ -642,10 +645,10 @@
         <v>20</v>
       </c>
       <c r="B27" t="s" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27" s="5"/>
     </row>
@@ -654,10 +657,10 @@
         <v>23</v>
       </c>
       <c r="B28" t="s" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D28" s="5"/>
     </row>
@@ -666,10 +669,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D29" s="5"/>
     </row>

--- a/doc/GoServerAPI.xlsx
+++ b/doc/GoServerAPI.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
-  <si>
-    <t>Model</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+  <si>
+    <t>MODEL</t>
   </si>
   <si>
     <t>ACTION / TODO</t>
@@ -23,10 +23,27 @@
     <t>COMMENT</t>
   </si>
   <si>
+    <t>STRUCT</t>
+  </si>
+  <si>
     <t>USER</t>
   </si>
   <si>
-    <t>TODO 1.获取该用户排名</t>
+    <t>TODO 1.获取该用户排名 2.获取该用户AC题目</t>
+  </si>
+  <si>
+    <t>type user struct {
+	Uid string `json:"uid"bson:"uid"`
+	Pwd string `json:"pwd"bson:"pwd"`
+	Nick   string `json:"nick"bson:"nick"`
+	Mail   string `json:"mail"bson:"mail"`
+	School string `json:"school"bson:"school"`
+	Privilege int `json:"privilege"bson:"privilege"`
+	Solve  int `json:"solve"bson:"solve"`
+	Submit int `json:"submit"bson:"submit"`
+	Status int    `json:"status"bson:"status"`
+	Create string `json:"create"bson:'create'`
+}</t>
   </si>
   <si>
     <t>Login</t>
@@ -116,6 +133,25 @@
     <t>TODO 1.不显示处于正在进行中的比赛中的题目 2.修改输入输出数据功能</t>
   </si>
   <si>
+    <t>type problem struct {
+	Pid int `json:"pid"bson:"pid"`
+	Time   int `json:"time"bson:"time"`
+	Memory int `json:"memory"bson:"memory"`
+	Title       string `json:"title"bson:"title"`
+	Description string `json:"description"bson:"description"`
+	Input       string `json:"input"bson:"input"`
+	Output      string `json:"output"bson:"output"`
+	Source      string `json:"source"bson:"source"`
+	Hint        string `json:"hint"bson:"hint"`
+	In  string `json:"in"bson:"in"`
+	Out string `json:"out"bson:"out"`
+	Solve  int `json:"solve"bson:"solve"`
+	Submit int `json:"submit"bson:"submit"`
+	Status int    `json:"status"bson:"status"`
+	Create string `json:"create"bson:"create"`
+}</t>
+  </si>
+  <si>
     <t>POST /problem/list/offset/&lt;offset&gt;/limit/&lt;limit&gt;/pid/&lt;pid&gt;/title/&lt;title&gt;/source/&lt;source&gt;</t>
   </si>
   <si>
@@ -161,6 +197,15 @@
     <t>NEWS</t>
   </si>
   <si>
+    <t>type news struct {
+	Nid     int    `json:"nid"bson:"nid"`
+	Title   string `json:"title"bson:"title"`
+	Content string `json:"content"bson:"content"`
+	Status int    `json:"status"bson:"status"`
+	Create string `json:"create"bson:'create'`
+}</t>
+  </si>
+  <si>
     <t>POST /news/list/offset/&lt;offset&gt;/limit/&lt;limit&gt;</t>
   </si>
   <si>
@@ -192,6 +237,67 @@
   </si>
   <si>
     <t>启用屏蔽新闻 nid必须</t>
+  </si>
+  <si>
+    <t>CONTEST</t>
+  </si>
+  <si>
+    <t>type contest struct {
+	Cid      int         `json:"cid"bson:"cid"`
+	Title    string      `json:"title"bson:"title"`
+	Encrypt  int         `json:"encrypt"bson:"encrypt"`
+	Argument interface{} `json:"argument"bson:"argument"`
+	Start string `json:"start"bson:"start"`
+	End   string `json:"end"bson:"end"`
+	Status int    `json:"status"bson:"status"`
+	Create string `'json:"create"bson:"create"`
+	List []int `json:"list"bson:"list"`
+}</t>
+  </si>
+  <si>
+    <t>POST /contest/list/offset/&lt;offset&gt;/limit/&lt;limit&gt;/pid/&lt;pid&gt;/title/&lt;title&gt;</t>
+  </si>
+  <si>
+    <t>获取竞赛列表 参数可选 搜索可用</t>
+  </si>
+  <si>
+    <t>Push</t>
+  </si>
+  <si>
+    <t>POST /contest/push/cid/&lt;cid&gt;</t>
+  </si>
+  <si>
+    <t>额外插入题目</t>
+  </si>
+  <si>
+    <t>POST /contest/insert</t>
+  </si>
+  <si>
+    <t>插入竞赛</t>
+  </si>
+  <si>
+    <t>POST /contest/detail/cid/&lt;cid&gt;</t>
+  </si>
+  <si>
+    <t>竞赛详情 cid必须</t>
+  </si>
+  <si>
+    <t>POST /contest/update/cid/&lt;cid&gt;</t>
+  </si>
+  <si>
+    <t>修改竞赛 cid必须</t>
+  </si>
+  <si>
+    <t>POST /contest/delete/cid/&lt;cid&gt;</t>
+  </si>
+  <si>
+    <t>删除竞赛 cid必须</t>
+  </si>
+  <si>
+    <t>POST /contest/status/cid/&lt;cid&gt;</t>
+  </si>
+  <si>
+    <t>启用屏蔽竞赛 cid必须</t>
   </si>
 </sst>
 </file>
@@ -273,7 +379,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -283,9 +389,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -305,9 +408,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -339,7 +439,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozenSplit"/>
@@ -350,7 +450,7 @@
     <col min="1" max="1" width="9.05469" style="1" customWidth="1"/>
     <col min="2" max="2" width="49.4766" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.7031" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7031" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5391" style="1" customWidth="1"/>
     <col min="5" max="256" width="9.05469" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -364,319 +464,439 @@
       <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" t="s" s="6">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="7">
+      <c r="A3" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="5"/>
+      <c r="B3" t="s" s="6">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" t="s" s="7">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="6">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s" s="8">
+      <c r="A4" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="B4" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s" s="8">
+      <c r="A5" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="B5" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s" s="8">
+      <c r="A6" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="B6" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s" s="8">
+      <c r="A7" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="B7" t="s" s="7">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s" s="8">
+      <c r="A8" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="B8" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s" s="7">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s" s="10">
+      <c r="A9" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="B9" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s" s="9">
+        <v>24</v>
+      </c>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" t="s" s="6">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s" s="10">
+      <c r="A10" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="B10" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s" s="10">
+      <c r="A11" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="B11" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" t="s" s="6">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s" s="10">
+      <c r="A12" t="s" s="5">
         <v>31</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="B12" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s" s="9">
+        <v>33</v>
+      </c>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="5"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="5"/>
+      <c r="A14" t="s" s="5">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s" s="6">
+        <v>35</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" t="s" s="7">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s" s="8">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="D15" s="5"/>
+      <c r="A15" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="D16" s="5"/>
+      <c r="A16" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s" s="8">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s" s="8">
-        <v>39</v>
-      </c>
-      <c r="D17" s="5"/>
+      <c r="A17" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="D18" s="5"/>
+      <c r="A18" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" t="s" s="6">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s" s="8">
-        <v>43</v>
-      </c>
-      <c r="D19" s="5"/>
+      <c r="A19" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s" s="8">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" t="s" s="6">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s" s="8">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s" s="8">
+      <c r="A20" t="s" s="5">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s" s="7">
         <v>47</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="C20" t="s" s="9">
+        <v>48</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" ht="129.9" customHeight="1">
+      <c r="A21" t="s" s="5">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="5"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" t="s" s="6">
-        <v>48</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="A23" t="s" s="5">
+        <v>51</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" t="s" s="7">
+        <v>52</v>
+      </c>
     </row>
     <row r="24" ht="20.35" customHeight="1">
-      <c r="A24" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s" s="8">
-        <v>49</v>
-      </c>
-      <c r="C24" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="D24" s="5"/>
+      <c r="A24" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s" s="9">
+        <v>54</v>
+      </c>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" ht="20.35" customHeight="1">
-      <c r="A25" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s" s="8">
-        <v>51</v>
-      </c>
-      <c r="C25" t="s" s="8">
-        <v>52</v>
-      </c>
-      <c r="D25" s="5"/>
+      <c r="A25" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s" s="7">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" ht="20.35" customHeight="1">
-      <c r="A26" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="B26" t="s" s="8">
-        <v>53</v>
-      </c>
-      <c r="C26" t="s" s="8">
-        <v>54</v>
-      </c>
-      <c r="D26" s="5"/>
+      <c r="A26" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" ht="20.35" customHeight="1">
-      <c r="A27" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s" s="8">
-        <v>55</v>
-      </c>
-      <c r="C27" t="s" s="8">
-        <v>56</v>
-      </c>
-      <c r="D27" s="5"/>
+      <c r="A27" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s" s="7">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s" s="7">
+        <v>60</v>
+      </c>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" ht="20.35" customHeight="1">
-      <c r="A28" t="s" s="6">
-        <v>23</v>
-      </c>
-      <c r="B28" t="s" s="8">
-        <v>53</v>
-      </c>
-      <c r="C28" t="s" s="8">
+      <c r="A28" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s" s="7">
         <v>57</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="C28" t="s" s="7">
+        <v>61</v>
+      </c>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" ht="20.35" customHeight="1">
-      <c r="A29" t="s" s="6">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s" s="8">
-        <v>58</v>
-      </c>
-      <c r="C29" t="s" s="8">
-        <v>59</v>
-      </c>
-      <c r="D29" s="5"/>
+      <c r="A29" t="s" s="5">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s" s="7">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" ht="20.35" customHeight="1">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" ht="20.35" customHeight="1">
+      <c r="A31" t="s" s="5">
+        <v>64</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" t="s" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" ht="20.35" customHeight="1">
+      <c r="A32" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s" s="7">
+        <v>67</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" ht="20.35" customHeight="1">
+      <c r="A33" t="s" s="5">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s" s="7">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s" s="7">
+        <v>70</v>
+      </c>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" ht="20.35" customHeight="1">
+      <c r="A34" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s" s="7">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s" s="7">
+        <v>72</v>
+      </c>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" ht="20.35" customHeight="1">
+      <c r="A35" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s" s="7">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s" s="7">
+        <v>74</v>
+      </c>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" ht="20.35" customHeight="1">
+      <c r="A36" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s" s="7">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s" s="7">
+        <v>76</v>
+      </c>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" ht="20.35" customHeight="1">
+      <c r="A37" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s" s="7">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s" s="7">
+        <v>78</v>
+      </c>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" ht="33.9" customHeight="1">
+      <c r="A38" t="s" s="5">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s" s="7">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s" s="7">
+        <v>80</v>
+      </c>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" ht="20.35" customHeight="1">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="D14:D21"/>
+    <mergeCell ref="D23:D29"/>
+    <mergeCell ref="D31:D38"/>
+  </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/doc/GoServerAPI.xlsx
+++ b/doc/GoServerAPI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>MODEL</t>
   </si>
@@ -298,6 +298,61 @@
   </si>
   <si>
     <t>启用屏蔽竞赛 cid必须</t>
+  </si>
+  <si>
+    <t>EXERCISE</t>
+  </si>
+  <si>
+    <t>type exercise struct {
+	Eid      int         `json:"eid"bson:"eid"`
+	Title    string      `json:"title"bson:"title"`
+	Encrypt  int         `json:"encrypt"bson:"encrypt"`
+	Argument interface{} `json:"argument"bson:"argument"`
+	Start string `json:"start"bson:"start"`
+	End   string `json:"end"bson:"end"`
+	Status int    `json:"status"bson:"status"`
+	Create string `'json:"create"bson:"create"`
+	List []int `json:"list"bson:"list"`
+}</t>
+  </si>
+  <si>
+    <t>POST /exercise/list/offset/&lt;offset&gt;/limit/&lt;limit&gt;/pid/&lt;pid&gt;/title/&lt;title&gt;</t>
+  </si>
+  <si>
+    <t>获取练习列表 参数可选 搜索可用</t>
+  </si>
+  <si>
+    <t>POST /exercise/push/cid/&lt;cid&gt;</t>
+  </si>
+  <si>
+    <t>POST /exercise/insert</t>
+  </si>
+  <si>
+    <t>插入练习</t>
+  </si>
+  <si>
+    <t>POST /exercise/detail/cid/&lt;cid&gt;</t>
+  </si>
+  <si>
+    <t>练习详情 eid必须</t>
+  </si>
+  <si>
+    <t>POST /exercise/update/cid/&lt;cid&gt;</t>
+  </si>
+  <si>
+    <t>修改练习 eid必须</t>
+  </si>
+  <si>
+    <t>POST /exercise/delete/cid/&lt;cid&gt;</t>
+  </si>
+  <si>
+    <t>删除练习 eid必须</t>
+  </si>
+  <si>
+    <t>POST /exercise/status/cid/&lt;cid&gt;</t>
+  </si>
+  <si>
+    <t>启用屏蔽练习 eid必须</t>
   </si>
 </sst>
 </file>
@@ -439,7 +494,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozenSplit"/>
@@ -888,14 +943,109 @@
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" ht="20.35" customHeight="1">
+      <c r="A40" t="s" s="5">
+        <v>81</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" t="s" s="7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" ht="20.35" customHeight="1">
+      <c r="A41" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="C41" t="s" s="7">
+        <v>84</v>
+      </c>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" ht="20.35" customHeight="1">
+      <c r="A42" t="s" s="5">
+        <v>68</v>
+      </c>
+      <c r="B42" t="s" s="7">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s" s="7">
+        <v>70</v>
+      </c>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" ht="20.35" customHeight="1">
+      <c r="A43" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s" s="7">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s" s="7">
+        <v>87</v>
+      </c>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" ht="20.35" customHeight="1">
+      <c r="A44" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="C44" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" ht="20.35" customHeight="1">
+      <c r="A45" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="B45" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="C45" t="s" s="7">
+        <v>91</v>
+      </c>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" ht="20.35" customHeight="1">
+      <c r="A46" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="B46" t="s" s="7">
+        <v>92</v>
+      </c>
+      <c r="C46" t="s" s="7">
+        <v>93</v>
+      </c>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" ht="33.9" customHeight="1">
+      <c r="A47" t="s" s="5">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s" s="7">
+        <v>94</v>
+      </c>
+      <c r="C47" t="s" s="7">
+        <v>95</v>
+      </c>
+      <c r="D47" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="D31:D38"/>
+    <mergeCell ref="D23:D29"/>
+    <mergeCell ref="D14:D21"/>
     <mergeCell ref="D3:D12"/>
-    <mergeCell ref="D14:D21"/>
-    <mergeCell ref="D23:D29"/>
-    <mergeCell ref="D31:D38"/>
+    <mergeCell ref="D40:D47"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/doc/GoServerAPI.xlsx
+++ b/doc/GoServerAPI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>MODEL</t>
   </si>
@@ -353,6 +353,62 @@
   </si>
   <si>
     <t>启用屏蔽练习 eid必须</t>
+  </si>
+  <si>
+    <t>SOLUTION</t>
+  </si>
+  <si>
+    <t>type solution struct {
+	Sid int `json:"sid"bson:"sid"`
+	Pid      int    `json:"pid"bson:"pid"`
+	Uid      string `json:"uid"bson:"uid"`
+	Judge    int    `json:"judge"bson:"judge"`
+	Time     int    `json:"time"bson:"time"`
+	Memory   int    `json:"memory"bson:"memory"`
+	Length   int    `json:"length"bson:"length"`
+	Language int    `json:"language"bson:"language"`
+	Module int `json:"module"bson:"module"`
+	Mid    int `json:"mid"bson:"mid"`
+	Code string `json:"code"bson:"code"`
+	Status int    `json:"status"bson:"status"`
+	Create string `json:"create"bson:"create"`
+}</t>
+  </si>
+  <si>
+    <t>POST /solution/list/offset/&lt;offset&gt;/limit/&lt;limit&gt;/sid/&lt;sid&gt;/pid/&lt;pid&gt;/uid/&lt;uid&gt;/language/&lt;language&gt;/judge/&lt;judge&gt;/module/&lt;module&gt;/mid/&lt;mid&gt;/from/&lt;from&gt;</t>
+  </si>
+  <si>
+    <t>获取运行结果列表 参数可选 搜索可用</t>
+  </si>
+  <si>
+    <t>POST /solution/insert</t>
+  </si>
+  <si>
+    <t>插入运行结果</t>
+  </si>
+  <si>
+    <t>POST /solution/detail/sid/&lt;sid&gt;</t>
+  </si>
+  <si>
+    <t>运行结果详情 eid必须</t>
+  </si>
+  <si>
+    <t>POST /solution/update/sid/&lt;sid&gt;</t>
+  </si>
+  <si>
+    <t>修改运行结果 eid必须</t>
+  </si>
+  <si>
+    <t>POST /solution/delete/sid/&lt;sid&gt;</t>
+  </si>
+  <si>
+    <t>删除运行结果 eid必须</t>
+  </si>
+  <si>
+    <t>POST /solution/status/sid/&lt;sid&gt;</t>
+  </si>
+  <si>
+    <t>启用屏蔽运行结果 eid必须</t>
   </si>
 </sst>
 </file>
@@ -494,7 +550,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozenSplit"/>
@@ -1039,13 +1095,102 @@
       </c>
       <c r="D47" s="7"/>
     </row>
+    <row r="48" ht="20.35" customHeight="1">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" ht="20.35" customHeight="1">
+      <c r="A49" t="s" s="5">
+        <v>96</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" t="s" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" ht="32.35" customHeight="1">
+      <c r="A50" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s" s="7">
+        <v>98</v>
+      </c>
+      <c r="C50" t="s" s="7">
+        <v>99</v>
+      </c>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" ht="20.35" customHeight="1">
+      <c r="A51" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s" s="7">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s" s="7">
+        <v>101</v>
+      </c>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" ht="20.35" customHeight="1">
+      <c r="A52" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="B52" t="s" s="9">
+        <v>102</v>
+      </c>
+      <c r="C52" t="s" s="7">
+        <v>103</v>
+      </c>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" ht="20.35" customHeight="1">
+      <c r="A53" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="B53" t="s" s="7">
+        <v>104</v>
+      </c>
+      <c r="C53" t="s" s="7">
+        <v>105</v>
+      </c>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" ht="20.35" customHeight="1">
+      <c r="A54" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="B54" t="s" s="7">
+        <v>106</v>
+      </c>
+      <c r="C54" t="s" s="7">
+        <v>107</v>
+      </c>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" ht="102.25" customHeight="1">
+      <c r="A55" t="s" s="5">
+        <v>31</v>
+      </c>
+      <c r="B55" t="s" s="7">
+        <v>108</v>
+      </c>
+      <c r="C55" t="s" s="7">
+        <v>109</v>
+      </c>
+      <c r="D55" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="D40:D47"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="D14:D21"/>
+    <mergeCell ref="D23:D29"/>
     <mergeCell ref="D31:D38"/>
-    <mergeCell ref="D23:D29"/>
-    <mergeCell ref="D14:D21"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="D40:D47"/>
+    <mergeCell ref="D49:D55"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/doc/GoServerAPI.xlsx
+++ b/doc/GoServerAPI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
   <si>
     <t>MODEL</t>
   </si>
@@ -26,10 +26,16 @@
     <t>STRUCT</t>
   </si>
   <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>1.log表 2.记录修正(solve/submit)</t>
+  </si>
+  <si>
     <t>USER</t>
   </si>
   <si>
-    <t>TODO 1.获取该用户排名 2.获取该用户AC题目</t>
+    <t>TODO 1.获取该用户排名</t>
   </si>
   <si>
     <t>type user struct {
@@ -500,16 +506,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -550,7 +556,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozenSplit"/>
@@ -580,164 +586,162 @@
       </c>
     </row>
     <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="A2" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" t="s" s="5">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s" s="6">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" t="s" s="7">
+      <c r="A3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" ht="20.35" customHeight="1">
+      <c r="A4" t="s" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="5">
+      <c r="B4" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="C4" s="7"/>
+      <c r="D4" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="7">
+    </row>
+    <row r="5" ht="20.35" customHeight="1">
+      <c r="A5" t="s" s="3">
         <v>9</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" t="s" s="5">
+      <c r="B5" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="C5" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" ht="20.35" customHeight="1">
+      <c r="A6" t="s" s="3">
         <v>12</v>
       </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" t="s" s="5">
+      <c r="B6" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="C6" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" ht="20.35" customHeight="1">
+      <c r="A7" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="8">
+      <c r="B7" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="C7" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" ht="20.35" customHeight="1">
+      <c r="A8" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" t="s" s="5">
+      <c r="B8" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="C8" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="C8" t="s" s="7">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" ht="20.35" customHeight="1">
+      <c r="A9" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" t="s" s="5">
+      <c r="B9" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="C9" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="C9" t="s" s="9">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" ht="20.35" customHeight="1">
+      <c r="A10" t="s" s="3">
         <v>24</v>
       </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" t="s" s="5">
+      <c r="B10" t="s" s="7">
         <v>25</v>
       </c>
-      <c r="B10" t="s" s="7">
+      <c r="C10" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="C10" t="s" s="9">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" ht="20.35" customHeight="1">
+      <c r="A11" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" t="s" s="5">
+      <c r="B11" t="s" s="7">
         <v>28</v>
       </c>
-      <c r="B11" t="s" s="7">
+      <c r="C11" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="C11" t="s" s="9">
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" ht="20.35" customHeight="1">
+      <c r="A12" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" t="s" s="5">
+      <c r="B12" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="B12" t="s" s="7">
+      <c r="C12" t="s" s="9">
         <v>32</v>
       </c>
-      <c r="C12" t="s" s="9">
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" ht="20.35" customHeight="1">
+      <c r="A13" t="s" s="3">
         <v>33</v>
       </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="B13" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s" s="9">
+        <v>35</v>
+      </c>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" t="s" s="5">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s" s="6">
-        <v>35</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" t="s" s="7">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" ht="20.35" customHeight="1">
+      <c r="A15" t="s" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s" s="7">
+      <c r="B15" t="s" s="4">
         <v>37</v>
       </c>
-      <c r="C15" t="s" s="7">
+      <c r="C15" s="7"/>
+      <c r="D15" t="s" s="7">
         <v>38</v>
       </c>
-      <c r="D15" s="7"/>
     </row>
     <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" t="s" s="8">
-        <v>16</v>
+      <c r="A16" t="s" s="3">
+        <v>15</v>
       </c>
       <c r="B16" t="s" s="7">
         <v>39</v>
@@ -745,11 +749,11 @@
       <c r="C16" t="s" s="7">
         <v>40</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" t="s" s="5">
-        <v>19</v>
+      <c r="A17" t="s" s="8">
+        <v>18</v>
       </c>
       <c r="B17" t="s" s="7">
         <v>41</v>
@@ -757,11 +761,11 @@
       <c r="C17" t="s" s="7">
         <v>42</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" t="s" s="5">
-        <v>22</v>
+      <c r="A18" t="s" s="3">
+        <v>21</v>
       </c>
       <c r="B18" t="s" s="7">
         <v>43</v>
@@ -769,11 +773,11 @@
       <c r="C18" t="s" s="7">
         <v>44</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" t="s" s="5">
-        <v>25</v>
+      <c r="A19" t="s" s="3">
+        <v>24</v>
       </c>
       <c r="B19" t="s" s="7">
         <v>45</v>
@@ -781,75 +785,75 @@
       <c r="C19" t="s" s="7">
         <v>46</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" t="s" s="5">
-        <v>28</v>
+      <c r="A20" t="s" s="3">
+        <v>27</v>
       </c>
       <c r="B20" t="s" s="7">
         <v>47</v>
       </c>
-      <c r="C20" t="s" s="9">
+      <c r="C20" t="s" s="7">
         <v>48</v>
       </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" ht="129.9" customHeight="1">
-      <c r="A21" t="s" s="5">
-        <v>31</v>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" ht="20.35" customHeight="1">
+      <c r="A21" t="s" s="3">
+        <v>30</v>
       </c>
       <c r="B21" t="s" s="7">
         <v>49</v>
       </c>
-      <c r="C21" t="s" s="7">
+      <c r="C21" t="s" s="9">
         <v>50</v>
       </c>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="5"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" ht="129.9" customHeight="1">
+      <c r="A22" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" t="s" s="7">
-        <v>52</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" ht="20.35" customHeight="1">
-      <c r="A24" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s" s="7">
+      <c r="A24" t="s" s="3">
         <v>53</v>
       </c>
-      <c r="C24" t="s" s="9">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" t="s" s="7">
         <v>54</v>
       </c>
-      <c r="D24" s="7"/>
     </row>
     <row r="25" ht="20.35" customHeight="1">
-      <c r="A25" t="s" s="8">
-        <v>16</v>
+      <c r="A25" t="s" s="3">
+        <v>15</v>
       </c>
       <c r="B25" t="s" s="7">
         <v>55</v>
       </c>
-      <c r="C25" t="s" s="7">
+      <c r="C25" t="s" s="9">
         <v>56</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" ht="20.35" customHeight="1">
-      <c r="A26" t="s" s="5">
-        <v>19</v>
+      <c r="A26" t="s" s="8">
+        <v>18</v>
       </c>
       <c r="B26" t="s" s="7">
         <v>57</v>
@@ -857,11 +861,11 @@
       <c r="C26" t="s" s="7">
         <v>58</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" ht="20.35" customHeight="1">
-      <c r="A27" t="s" s="5">
-        <v>22</v>
+      <c r="A27" t="s" s="3">
+        <v>21</v>
       </c>
       <c r="B27" t="s" s="7">
         <v>59</v>
@@ -869,75 +873,75 @@
       <c r="C27" t="s" s="7">
         <v>60</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" ht="20.35" customHeight="1">
-      <c r="A28" t="s" s="5">
-        <v>25</v>
+      <c r="A28" t="s" s="3">
+        <v>24</v>
       </c>
       <c r="B28" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s" s="7">
-        <v>61</v>
-      </c>
-      <c r="D28" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" ht="20.35" customHeight="1">
-      <c r="A29" t="s" s="5">
-        <v>31</v>
+      <c r="A29" t="s" s="3">
+        <v>27</v>
       </c>
       <c r="B29" t="s" s="7">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s" s="7">
         <v>63</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" ht="20.35" customHeight="1">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="7"/>
+      <c r="A30" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s" s="7">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s" s="7">
+        <v>65</v>
+      </c>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" ht="20.35" customHeight="1">
-      <c r="A31" t="s" s="5">
-        <v>64</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" t="s" s="7">
-        <v>65</v>
-      </c>
+      <c r="A31" s="6"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" ht="20.35" customHeight="1">
-      <c r="A32" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s" s="7">
+      <c r="A32" t="s" s="3">
         <v>66</v>
       </c>
-      <c r="C32" t="s" s="7">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" t="s" s="7">
         <v>67</v>
       </c>
-      <c r="D32" s="7"/>
     </row>
     <row r="33" ht="20.35" customHeight="1">
-      <c r="A33" t="s" s="5">
+      <c r="A33" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s" s="7">
         <v>68</v>
       </c>
-      <c r="B33" t="s" s="7">
+      <c r="C33" t="s" s="7">
         <v>69</v>
       </c>
-      <c r="C33" t="s" s="7">
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" ht="20.35" customHeight="1">
+      <c r="A34" t="s" s="3">
         <v>70</v>
-      </c>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" ht="20.35" customHeight="1">
-      <c r="A34" t="s" s="5">
-        <v>16</v>
       </c>
       <c r="B34" t="s" s="7">
         <v>71</v>
@@ -945,11 +949,11 @@
       <c r="C34" t="s" s="7">
         <v>72</v>
       </c>
-      <c r="D34" s="7"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" ht="20.35" customHeight="1">
-      <c r="A35" t="s" s="5">
-        <v>19</v>
+      <c r="A35" t="s" s="3">
+        <v>18</v>
       </c>
       <c r="B35" t="s" s="7">
         <v>73</v>
@@ -957,11 +961,11 @@
       <c r="C35" t="s" s="7">
         <v>74</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" ht="20.35" customHeight="1">
-      <c r="A36" t="s" s="5">
-        <v>22</v>
+      <c r="A36" t="s" s="3">
+        <v>21</v>
       </c>
       <c r="B36" t="s" s="7">
         <v>75</v>
@@ -969,11 +973,11 @@
       <c r="C36" t="s" s="7">
         <v>76</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" ht="20.35" customHeight="1">
-      <c r="A37" t="s" s="5">
-        <v>25</v>
+      <c r="A37" t="s" s="3">
+        <v>24</v>
       </c>
       <c r="B37" t="s" s="7">
         <v>77</v>
@@ -981,11 +985,11 @@
       <c r="C37" t="s" s="7">
         <v>78</v>
       </c>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" ht="33.9" customHeight="1">
-      <c r="A38" t="s" s="5">
-        <v>31</v>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" ht="20.35" customHeight="1">
+      <c r="A38" t="s" s="3">
+        <v>27</v>
       </c>
       <c r="B38" t="s" s="7">
         <v>79</v>
@@ -993,63 +997,63 @@
       <c r="C38" t="s" s="7">
         <v>80</v>
       </c>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" ht="20.35" customHeight="1">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="7"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" ht="33.9" customHeight="1">
+      <c r="A39" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s" s="7">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s" s="7">
+        <v>82</v>
+      </c>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" ht="20.35" customHeight="1">
-      <c r="A40" t="s" s="5">
-        <v>81</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" t="s" s="7">
-        <v>82</v>
-      </c>
+      <c r="A40" s="6"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" ht="20.35" customHeight="1">
-      <c r="A41" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="B41" t="s" s="7">
+      <c r="A41" t="s" s="3">
         <v>83</v>
       </c>
-      <c r="C41" t="s" s="7">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" t="s" s="7">
         <v>84</v>
       </c>
-      <c r="D41" s="7"/>
     </row>
     <row r="42" ht="20.35" customHeight="1">
-      <c r="A42" t="s" s="5">
-        <v>68</v>
+      <c r="A42" t="s" s="3">
+        <v>15</v>
       </c>
       <c r="B42" t="s" s="7">
         <v>85</v>
       </c>
       <c r="C42" t="s" s="7">
+        <v>86</v>
+      </c>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" ht="20.35" customHeight="1">
+      <c r="A43" t="s" s="3">
         <v>70</v>
       </c>
-      <c r="D42" s="7"/>
-    </row>
-    <row r="43" ht="20.35" customHeight="1">
-      <c r="A43" t="s" s="5">
-        <v>16</v>
-      </c>
       <c r="B43" t="s" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s" s="7">
-        <v>87</v>
-      </c>
-      <c r="D43" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" ht="20.35" customHeight="1">
-      <c r="A44" t="s" s="5">
-        <v>19</v>
+      <c r="A44" t="s" s="3">
+        <v>18</v>
       </c>
       <c r="B44" t="s" s="7">
         <v>88</v>
@@ -1057,11 +1061,11 @@
       <c r="C44" t="s" s="7">
         <v>89</v>
       </c>
-      <c r="D44" s="7"/>
+      <c r="D44" s="5"/>
     </row>
     <row r="45" ht="20.35" customHeight="1">
-      <c r="A45" t="s" s="5">
-        <v>22</v>
+      <c r="A45" t="s" s="3">
+        <v>21</v>
       </c>
       <c r="B45" t="s" s="7">
         <v>90</v>
@@ -1069,11 +1073,11 @@
       <c r="C45" t="s" s="7">
         <v>91</v>
       </c>
-      <c r="D45" s="7"/>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" ht="20.35" customHeight="1">
-      <c r="A46" t="s" s="5">
-        <v>25</v>
+      <c r="A46" t="s" s="3">
+        <v>24</v>
       </c>
       <c r="B46" t="s" s="7">
         <v>92</v>
@@ -1081,11 +1085,11 @@
       <c r="C46" t="s" s="7">
         <v>93</v>
       </c>
-      <c r="D46" s="7"/>
-    </row>
-    <row r="47" ht="33.9" customHeight="1">
-      <c r="A47" t="s" s="5">
-        <v>31</v>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" ht="20.35" customHeight="1">
+      <c r="A47" t="s" s="3">
+        <v>27</v>
       </c>
       <c r="B47" t="s" s="7">
         <v>94</v>
@@ -1093,39 +1097,39 @@
       <c r="C47" t="s" s="7">
         <v>95</v>
       </c>
-      <c r="D47" s="7"/>
-    </row>
-    <row r="48" ht="20.35" customHeight="1">
-      <c r="A48" s="3"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="7"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" ht="33.9" customHeight="1">
+      <c r="A48" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="B48" t="s" s="7">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s" s="7">
+        <v>97</v>
+      </c>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" ht="20.35" customHeight="1">
-      <c r="A49" t="s" s="5">
-        <v>96</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" t="s" s="7">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" ht="32.35" customHeight="1">
-      <c r="A50" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="B50" t="s" s="7">
+      <c r="A49" s="6"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" ht="20.35" customHeight="1">
+      <c r="A50" t="s" s="3">
         <v>98</v>
       </c>
-      <c r="C50" t="s" s="7">
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" t="s" s="7">
         <v>99</v>
       </c>
-      <c r="D50" s="7"/>
-    </row>
-    <row r="51" ht="20.35" customHeight="1">
-      <c r="A51" t="s" s="5">
-        <v>16</v>
+    </row>
+    <row r="51" ht="32.35" customHeight="1">
+      <c r="A51" t="s" s="3">
+        <v>15</v>
       </c>
       <c r="B51" t="s" s="7">
         <v>100</v>
@@ -1133,35 +1137,35 @@
       <c r="C51" t="s" s="7">
         <v>101</v>
       </c>
-      <c r="D51" s="7"/>
+      <c r="D51" s="5"/>
     </row>
     <row r="52" ht="20.35" customHeight="1">
-      <c r="A52" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="B52" t="s" s="9">
+      <c r="A52" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s" s="7">
         <v>102</v>
       </c>
       <c r="C52" t="s" s="7">
         <v>103</v>
       </c>
-      <c r="D52" s="7"/>
+      <c r="D52" s="5"/>
     </row>
     <row r="53" ht="20.35" customHeight="1">
-      <c r="A53" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="B53" t="s" s="7">
+      <c r="A53" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="B53" t="s" s="9">
         <v>104</v>
       </c>
       <c r="C53" t="s" s="7">
         <v>105</v>
       </c>
-      <c r="D53" s="7"/>
+      <c r="D53" s="5"/>
     </row>
     <row r="54" ht="20.35" customHeight="1">
-      <c r="A54" t="s" s="5">
-        <v>25</v>
+      <c r="A54" t="s" s="3">
+        <v>24</v>
       </c>
       <c r="B54" t="s" s="7">
         <v>106</v>
@@ -1169,11 +1173,11 @@
       <c r="C54" t="s" s="7">
         <v>107</v>
       </c>
-      <c r="D54" s="7"/>
-    </row>
-    <row r="55" ht="102.25" customHeight="1">
-      <c r="A55" t="s" s="5">
-        <v>31</v>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" ht="20.35" customHeight="1">
+      <c r="A55" t="s" s="3">
+        <v>27</v>
       </c>
       <c r="B55" t="s" s="7">
         <v>108</v>
@@ -1181,16 +1185,28 @@
       <c r="C55" t="s" s="7">
         <v>109</v>
       </c>
-      <c r="D55" s="7"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" ht="102.25" customHeight="1">
+      <c r="A56" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="B56" t="s" s="7">
+        <v>110</v>
+      </c>
+      <c r="C56" t="s" s="7">
+        <v>111</v>
+      </c>
+      <c r="D56" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D40:D47"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="D14:D21"/>
-    <mergeCell ref="D23:D29"/>
-    <mergeCell ref="D31:D38"/>
-    <mergeCell ref="D49:D55"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="D4:D13"/>
+    <mergeCell ref="D15:D22"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="D32:D39"/>
+    <mergeCell ref="D50:D56"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/doc/GoServerAPI.xlsx
+++ b/doc/GoServerAPI.xlsx
@@ -29,7 +29,7 @@
     <t>TODO</t>
   </si>
   <si>
-    <t>1.log表 2.记录修正(solve/submit)</t>
+    <t>1.log表 2.记录修正(solve/submit) 3.定向加密 4.数据库密码</t>
   </si>
   <si>
     <t>USER</t>
@@ -1201,12 +1201,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="D32:D39"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="D15:D22"/>
+    <mergeCell ref="D4:D13"/>
     <mergeCell ref="D41:D48"/>
-    <mergeCell ref="D4:D13"/>
-    <mergeCell ref="D15:D22"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="D32:D39"/>
-    <mergeCell ref="D50:D56"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/doc/GoServerAPI.xlsx
+++ b/doc/GoServerAPI.xlsx
@@ -35,7 +35,7 @@
     <t>USER</t>
   </si>
   <si>
-    <t>TODO 1.获取该用户排名</t>
+    <t>TODO 1.获取该用户排名 2.密码密文保存</t>
   </si>
   <si>
     <t>type user struct {
@@ -1201,12 +1201,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="D4:D13"/>
+    <mergeCell ref="D15:D22"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="D32:D39"/>
     <mergeCell ref="D50:D56"/>
-    <mergeCell ref="D32:D39"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="D15:D22"/>
-    <mergeCell ref="D4:D13"/>
-    <mergeCell ref="D41:D48"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/doc/GoServerAPI.xlsx
+++ b/doc/GoServerAPI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
   <si>
     <t>MODEL</t>
   </si>
@@ -115,13 +115,13 @@
     <t>删除用户 uid必须</t>
   </si>
   <si>
-    <t>Submit</t>
-  </si>
-  <si>
-    <t>POST /user/submit/uid/&lt;uid&gt;/solve/&lt;0/1&gt;</t>
-  </si>
-  <si>
-    <t>更新用户提交解决数据 uid必须 solve可选</t>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>POST /user/record/uid/&lt;uid&gt;/action/&lt;solve/submit&gt;</t>
+  </si>
+  <si>
+    <t>更新用户提交解决数据 uid必须 action必须</t>
   </si>
   <si>
     <t>Status</t>
@@ -188,10 +188,10 @@
     <t>删除题目 pid必须</t>
   </si>
   <si>
-    <t>POST /problem/submit/pid/&lt;pid&gt;/solve/&lt;0/1&gt;</t>
-  </si>
-  <si>
-    <t>更新题目提交解决数据 pid必须 solve可选</t>
+    <t>POST /problem/record/pid/&lt;pid&gt;/action/&lt;solve/submit&gt;</t>
+  </si>
+  <si>
+    <t>更新题目提交解决数据 pid必须 action必须</t>
   </si>
   <si>
     <t>POST /problem/status/pid/&lt;pid&gt;</t>
@@ -409,6 +409,24 @@
   </si>
   <si>
     <t>删除运行结果 eid必须</t>
+  </si>
+  <si>
+    <t>Achieve</t>
+  </si>
+  <si>
+    <t>POST /solution/achieve/uid/&lt;uid&gt;</t>
+  </si>
+  <si>
+    <t>获取用户完成题目列表 uid必须</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>POST /solution/count/pid/&lt;pid&gt;/uid/&lt;uid&gt;/action/&lt;accept/solve/submit&gt;</t>
+  </si>
+  <si>
+    <t>获取运行结果数量 action必须 其余可选</t>
   </si>
   <si>
     <t>POST /solution/status/sid/&lt;sid&gt;</t>
@@ -556,7 +574,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozenSplit"/>
@@ -1187,26 +1205,50 @@
       </c>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" ht="102.25" customHeight="1">
+    <row r="56" ht="20.35" customHeight="1">
       <c r="A56" t="s" s="3">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s" s="7">
+        <v>111</v>
+      </c>
+      <c r="C56" t="s" s="7">
+        <v>112</v>
+      </c>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" ht="20.35" customHeight="1">
+      <c r="A57" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="B57" t="s" s="7">
+        <v>114</v>
+      </c>
+      <c r="C57" t="s" s="7">
+        <v>115</v>
+      </c>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" ht="61.55" customHeight="1">
+      <c r="A58" t="s" s="3">
         <v>33</v>
       </c>
-      <c r="B56" t="s" s="7">
-        <v>110</v>
-      </c>
-      <c r="C56" t="s" s="7">
-        <v>111</v>
-      </c>
-      <c r="D56" s="7"/>
+      <c r="B58" t="s" s="7">
+        <v>116</v>
+      </c>
+      <c r="C58" t="s" s="7">
+        <v>117</v>
+      </c>
+      <c r="D58" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D32:D39"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="D15:D22"/>
+    <mergeCell ref="D4:D13"/>
     <mergeCell ref="D41:D48"/>
-    <mergeCell ref="D4:D13"/>
-    <mergeCell ref="D15:D22"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="D32:D39"/>
-    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="D50:D58"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/doc/GoServerAPI.xlsx
+++ b/doc/GoServerAPI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
   <si>
     <t>MODEL</t>
   </si>
@@ -248,6 +248,9 @@
     <t>CONTEST</t>
   </si>
   <si>
+    <t>TODO 1.竞赛内罚时排名</t>
+  </si>
+  <si>
     <t>type contest struct {
 	Cid      int         `json:"cid"bson:"cid"`
 	Title    string      `json:"title"bson:"title"`
@@ -307,6 +310,9 @@
   </si>
   <si>
     <t>EXERCISE</t>
+  </si>
+  <si>
+    <t>TODO 1.练习内罚时排名</t>
   </si>
   <si>
     <t>type exercise struct {
@@ -514,7 +520,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -543,6 +549,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -939,10 +948,12 @@
       <c r="A32" t="s" s="3">
         <v>66</v>
       </c>
-      <c r="B32" s="5"/>
+      <c r="B32" t="s" s="4">
+        <v>67</v>
+      </c>
       <c r="C32" s="5"/>
       <c r="D32" t="s" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" ht="20.35" customHeight="1">
@@ -950,22 +961,22 @@
         <v>15</v>
       </c>
       <c r="B33" t="s" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D33" s="5"/>
     </row>
     <row r="34" ht="20.35" customHeight="1">
       <c r="A34" t="s" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D34" s="5"/>
     </row>
@@ -974,10 +985,10 @@
         <v>18</v>
       </c>
       <c r="B35" t="s" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D35" s="5"/>
     </row>
@@ -986,10 +997,10 @@
         <v>21</v>
       </c>
       <c r="B36" t="s" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D36" s="5"/>
     </row>
@@ -998,10 +1009,10 @@
         <v>24</v>
       </c>
       <c r="B37" t="s" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D37" s="5"/>
     </row>
@@ -1010,10 +1021,10 @@
         <v>27</v>
       </c>
       <c r="B38" t="s" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D38" s="5"/>
     </row>
@@ -1022,10 +1033,10 @@
         <v>33</v>
       </c>
       <c r="B39" t="s" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D39" s="5"/>
     </row>
@@ -1037,12 +1048,14 @@
     </row>
     <row r="41" ht="20.35" customHeight="1">
       <c r="A41" t="s" s="3">
-        <v>83</v>
-      </c>
-      <c r="B41" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="B41" t="s" s="10">
+        <v>85</v>
+      </c>
       <c r="C41" s="5"/>
       <c r="D41" t="s" s="7">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" ht="20.35" customHeight="1">
@@ -1050,22 +1063,22 @@
         <v>15</v>
       </c>
       <c r="B42" t="s" s="7">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s" s="7">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D42" s="5"/>
     </row>
     <row r="43" ht="20.35" customHeight="1">
       <c r="A43" t="s" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s" s="7">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D43" s="5"/>
     </row>
@@ -1074,10 +1087,10 @@
         <v>18</v>
       </c>
       <c r="B44" t="s" s="7">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s" s="7">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D44" s="5"/>
     </row>
@@ -1086,10 +1099,10 @@
         <v>21</v>
       </c>
       <c r="B45" t="s" s="7">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s" s="7">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D45" s="5"/>
     </row>
@@ -1098,10 +1111,10 @@
         <v>24</v>
       </c>
       <c r="B46" t="s" s="7">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s" s="7">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D46" s="5"/>
     </row>
@@ -1110,10 +1123,10 @@
         <v>27</v>
       </c>
       <c r="B47" t="s" s="7">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s" s="7">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D47" s="5"/>
     </row>
@@ -1122,10 +1135,10 @@
         <v>33</v>
       </c>
       <c r="B48" t="s" s="7">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s" s="7">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D48" s="5"/>
     </row>
@@ -1137,12 +1150,12 @@
     </row>
     <row r="50" ht="20.35" customHeight="1">
       <c r="A50" t="s" s="3">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" t="s" s="7">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" ht="32.35" customHeight="1">
@@ -1150,10 +1163,10 @@
         <v>15</v>
       </c>
       <c r="B51" t="s" s="7">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s" s="7">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D51" s="5"/>
     </row>
@@ -1162,10 +1175,10 @@
         <v>18</v>
       </c>
       <c r="B52" t="s" s="7">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s" s="7">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D52" s="5"/>
     </row>
@@ -1174,10 +1187,10 @@
         <v>21</v>
       </c>
       <c r="B53" t="s" s="9">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s" s="7">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D53" s="5"/>
     </row>
@@ -1186,10 +1199,10 @@
         <v>24</v>
       </c>
       <c r="B54" t="s" s="7">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C54" t="s" s="7">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D54" s="5"/>
     </row>
@@ -1198,34 +1211,34 @@
         <v>27</v>
       </c>
       <c r="B55" t="s" s="7">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s" s="7">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D55" s="5"/>
     </row>
     <row r="56" ht="20.35" customHeight="1">
       <c r="A56" t="s" s="3">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s" s="7">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C56" t="s" s="7">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D56" s="5"/>
     </row>
     <row r="57" ht="20.35" customHeight="1">
       <c r="A57" t="s" s="3">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s" s="7">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C57" t="s" s="7">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D57" s="5"/>
     </row>
@@ -1234,21 +1247,21 @@
         <v>33</v>
       </c>
       <c r="B58" t="s" s="7">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C58" t="s" s="7">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D58" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D50:D58"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="D4:D13"/>
+    <mergeCell ref="D15:D22"/>
+    <mergeCell ref="D24:D30"/>
     <mergeCell ref="D32:D39"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="D15:D22"/>
-    <mergeCell ref="D4:D13"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="D50:D58"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/doc/GoServerAPI.xlsx
+++ b/doc/GoServerAPI.xlsx
@@ -141,8 +141,9 @@
   <si>
     <t>type problem struct {
 	Pid int `json:"pid"bson:"pid"`
-	Time   int `json:"time"bson:"time"`
-	Memory int `json:"memory"bson:"memory"`
+	Time    int `json:"time"bson:"time"`
+	Memory  int `json:"memory"bson:"memory"`
+	Special int `json:"special"bson:"special"`
 	Title       string `json:"title"bson:"title"`
 	Description string `json:"description"bson:"description"`
 	Input       string `json:"input"bson:"input"`
@@ -838,7 +839,7 @@
       </c>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" ht="129.9" customHeight="1">
+    <row r="22" ht="141.9" customHeight="1">
       <c r="A22" t="s" s="3">
         <v>33</v>
       </c>
@@ -1256,12 +1257,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D32:D39"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="D15:D22"/>
+    <mergeCell ref="D4:D13"/>
+    <mergeCell ref="D41:D48"/>
     <mergeCell ref="D50:D58"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="D4:D13"/>
-    <mergeCell ref="D15:D22"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="D32:D39"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/doc/GoServerAPI.xlsx
+++ b/doc/GoServerAPI.xlsx
@@ -35,7 +35,7 @@
     <t>USER</t>
   </si>
   <si>
-    <t>TODO 1.获取该用户排名 2.密码密文保存</t>
+    <t>TODO 1.获取该用户排名</t>
   </si>
   <si>
     <t>type user struct {

--- a/doc/GoServerAPI.xlsx
+++ b/doc/GoServerAPI.xlsx
@@ -136,7 +136,7 @@
     <t>PROBLEM</t>
   </si>
   <si>
-    <t>TODO 1.不显示处于正在进行中的比赛中的题目 2.修改输入输出数据功能</t>
+    <t>TODO 1.修改输入输出数据功能</t>
   </si>
   <si>
     <t>type problem struct {
@@ -1257,12 +1257,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D50:D58"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="D4:D13"/>
+    <mergeCell ref="D15:D22"/>
+    <mergeCell ref="D24:D30"/>
     <mergeCell ref="D32:D39"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="D15:D22"/>
-    <mergeCell ref="D4:D13"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="D50:D58"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
